--- a/people_reports/Research_170.xlsx
+++ b/people_reports/Research_170.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gray-kevin-4877</t>
+          <t>bell-leslie-5501</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>bell-leslie-5501</t>
+          <t>bright-katherine-7426</t>
         </is>
       </c>
     </row>
